--- a/Database Outine1.2.xlsx
+++ b/Database Outine1.2.xlsx
@@ -16,36 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>UserID(PK)</t>
   </si>
   <si>
-    <t>UserEmail(Unique)</t>
-  </si>
-  <si>
-    <t>UserPassword</t>
-  </si>
-  <si>
-    <t>UserPhone(Unique)</t>
-  </si>
-  <si>
     <t>ProductID(PK)</t>
   </si>
   <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>ProductDesc</t>
-  </si>
-  <si>
     <t>ProductCost</t>
-  </si>
-  <si>
-    <t>ProductImg</t>
-  </si>
-  <si>
-    <t>ProductStock</t>
   </si>
   <si>
     <t>UserID(FK)</t>
@@ -106,9 +85,6 @@
     <t>CRUD</t>
   </si>
   <si>
-    <t>CreationDate</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -133,9 +109,6 @@
     <t>productStd</t>
   </si>
   <si>
-    <t>houseNum</t>
-  </si>
-  <si>
     <t>street</t>
   </si>
   <si>
@@ -158,6 +131,39 @@
   </si>
   <si>
     <t>Many(Products)</t>
+  </si>
+  <si>
+    <t>homeAddress</t>
+  </si>
+  <si>
+    <t>userID(FK)</t>
+  </si>
+  <si>
+    <t>userEmail(Unique)</t>
+  </si>
+  <si>
+    <t>userPassword</t>
+  </si>
+  <si>
+    <t>userPhone(Unique)</t>
+  </si>
+  <si>
+    <t>usDate</t>
+  </si>
+  <si>
+    <t>productID(FK)</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productDesc</t>
+  </si>
+  <si>
+    <t>productStock</t>
+  </si>
+  <si>
+    <t>productImg(imagePath)</t>
   </si>
 </sst>
 </file>
@@ -332,6 +338,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -350,23 +368,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -674,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,37 +697,37 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="J9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -736,34 +742,34 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20"/>
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="E13" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="E14" s="2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>38</v>
@@ -771,83 +777,83 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="E22" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="E23" s="6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E26" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G27" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H27" s="8"/>
       <c r="J27">
@@ -857,21 +863,21 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="E28" s="23" t="s">
+      <c r="A28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>10</v>
+      <c r="B28" s="16"/>
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G28" s="8">
         <v>1</v>
@@ -880,69 +886,69 @@
         <v>1</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="E29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>46</v>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="E29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="22"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
+      <c r="E30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="22"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="22"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G33" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H33" s="8"/>
       <c r="J33">
@@ -952,73 +958,73 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="20"/>
+      <c r="A34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="16"/>
       <c r="E34" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22">
+        <v>1</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="18">
-        <v>1</v>
-      </c>
-      <c r="H34" s="18">
-        <v>1</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="E35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="16"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="E39" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="A28:B29"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="N27:O35"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="J28:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database Outine1.2.xlsx
+++ b/Database Outine1.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>UserID(PK)</t>
   </si>
@@ -63,10 +63,6 @@
     <t>Despatch</t>
   </si>
   <si>
-    <t>TotalCost=
-(ProductCost(Reference i.e FK) *ProductQty(Reference i.e FK)</t>
-  </si>
-  <si>
     <t>SalesDate(Reference i.e FK)</t>
   </si>
   <si>
@@ -164,6 +160,12 @@
   </si>
   <si>
     <t>productImg(imagePath)</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
   </si>
 </sst>
 </file>
@@ -314,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +346,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,21 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:O40"/>
+  <dimension ref="A9:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,37 +702,37 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="21"/>
+      <c r="J9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="18"/>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -742,289 +747,324 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="E13" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="E22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="E23" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="E23" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="6" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="6" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="18"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="22"/>
       <c r="E28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="E29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="E29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="22">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" s="13"/>
-      <c r="F31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="18"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="8"/>
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="E34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="E35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="J35" s="17"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="24"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="24"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="E34" s="4" t="s">
+      <c r="H39" s="8"/>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="23"/>
+      <c r="O39" s="24"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="22">
-        <v>1</v>
-      </c>
-      <c r="H34" s="22">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="E35" s="4" t="s">
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
+        <v>1</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
+  <mergeCells count="13">
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="N33:O41"/>
     <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="N27:O35"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database Outine1.2.xlsx
+++ b/Database Outine1.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>UserID(PK)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>SalesDate</t>
   </si>
   <si>
-    <t>DespID(PK)</t>
-  </si>
-  <si>
     <t>SalesID(FK)</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Despatch</t>
   </si>
   <si>
-    <t>SalesDate(Reference i.e FK)</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -165,7 +159,19 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>TotalCost</t>
+    <t>disptachId</t>
+  </si>
+  <si>
+    <t>cartID(PK)</t>
+  </si>
+  <si>
+    <t>CartId(FK)</t>
+  </si>
+  <si>
+    <t>TotalCost(Entry will be made)</t>
+  </si>
+  <si>
+    <t>arrivalDate(Reference i.e FK)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,7 +330,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,17 +339,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +399,344 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Down Arrow 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5591175" y="1790700"/>
+          <a:ext cx="657225" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 55797"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Down Arrow 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5629275" y="3457575"/>
+          <a:ext cx="657225" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 55797"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1982811</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2713991</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3560021">
+          <a:off x="5625001" y="3843024"/>
+          <a:ext cx="342900" cy="2750480"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 55797"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Down Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="6400801"/>
+          <a:ext cx="228599" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 55797"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Down Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="7172326"/>
+          <a:ext cx="228599" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 55797"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Curved Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5772150" y="4562475"/>
+          <a:ext cx="3314700" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="66675">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:O46"/>
+  <dimension ref="A9:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,37 +1045,37 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>23</v>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -747,327 +1090,324 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="E22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="A22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="E23" s="6" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="6" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="6" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="6" t="s">
+      <c r="B31" s="21"/>
+      <c r="E31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="E32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="E37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="J38" s="16"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="E41" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="9"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="E28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="E29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="18">
         <v>1</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="J33">
+      <c r="H41" s="18">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="E34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="E35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="J35" s="17"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="24"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="24"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="E40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="N41" s="22"/>
+      <c r="O41" s="23"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="F42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="E46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="N33:O41"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="N36:O42"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="E46:H47"/>
+    <mergeCell ref="J37:J38"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Database Outine1.2.xlsx
+++ b/Database Outine1.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>UserID(PK)</t>
   </si>
@@ -30,12 +30,6 @@
     <t>UserID(FK)</t>
   </si>
   <si>
-    <t>ProductID(FK)</t>
-  </si>
-  <si>
-    <t>ProductQty</t>
-  </si>
-  <si>
     <t>SalesID(PK)</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>role(ENUM)</t>
   </si>
   <si>
-    <t>ProductCost(FK)</t>
-  </si>
-  <si>
     <t>userStd</t>
   </si>
   <si>
@@ -172,6 +163,9 @@
   </si>
   <si>
     <t>arrivalDate(Reference i.e FK)</t>
+  </si>
+  <si>
+    <t>productList</t>
   </si>
 </sst>
 </file>
@@ -354,6 +348,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -368,24 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,37 +1039,37 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="J9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="23"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -1090,79 +1084,79 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="A22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>1</v>
@@ -1171,14 +1165,14 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>2</v>
@@ -1186,17 +1180,17 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E26" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1216,40 +1210,36 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="21"/>
+      <c r="A31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="16"/>
       <c r="E31" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="E32" s="11" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="11"/>
       <c r="G33" s="8"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E34" s="11"/>
       <c r="G34" s="8"/>
       <c r="H34" s="12"/>
     </row>
@@ -1259,7 +1249,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G36" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="7"/>
       <c r="J36">
@@ -1269,18 +1259,18 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="21"/>
+      <c r="A37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="16"/>
       <c r="E37" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>3</v>
@@ -1291,42 +1281,42 @@
       <c r="H37" s="13">
         <v>1</v>
       </c>
-      <c r="J37" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
+      <c r="J37" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="E38" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="J38" s="16"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="J38" s="22"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G40" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" s="7"/>
       <c r="J40">
@@ -1336,67 +1326,61 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="21"/>
+      <c r="A41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="16"/>
       <c r="E41" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="18">
+        <v>6</v>
+      </c>
+      <c r="G41" s="24">
         <v>1</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="24">
         <v>1</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="23"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="E42" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="E46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="N36:O42"/>
-    <mergeCell ref="A31:B32"/>
     <mergeCell ref="E46:H47"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="J9:K9"/>
@@ -1404,6 +1388,12 @@
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="N36:O42"/>
+    <mergeCell ref="A31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
